--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/14_Batman_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/14_Batman_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A21CA26-B3F6-4B34-B60C-5A034478AB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B5D0B30-A535-4D80-ACE2-590F6671ADAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{7B31512C-C84F-4226-BBED-85AAF3E2B72B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{802922DE-3B56-4419-86AD-14CF0B7A61D9}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -908,14 +908,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{6FD3A303-6598-4375-B189-3C44E5853FE8}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{A4A98480-999E-43B9-8BDF-E3E28E230440}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{0B36DCCF-4D39-4AF3-ABE7-E090A9CBB4C8}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{202B5AAF-7A8E-4233-BE0C-7071CE7EC1C5}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{6CADFA30-494F-4FF7-9268-9903D870BB9E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{E50842A4-3F86-4C04-A70D-A1BD480B19A8}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{C6E332B9-EB1B-4801-A734-8B99BCE6C377}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{84872045-1475-4CA4-ABF5-EFF880774F26}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1E46F46F-F26E-4B46-A05F-929B564AFA1C}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{B7ACDC0A-FF62-4149-8D89-E010D129D9E8}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{59503976-63B3-42B4-910F-C71F6A8F773C}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{35E219AA-43B8-4A45-9FEA-58F149C407E8}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{7D7B7D2F-E28C-416B-AFC0-509902A40836}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C070EC0C-0686-4FC1-AF00-66F61B4908F6}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{31E167E6-8F0E-4A92-9FBD-E537C1582DE0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{414725A7-42CD-4465-9839-89C5B41AD471}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1285,7 +1285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC93FE1-0B83-4195-8E39-6B9274FB2ABD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25543090-F2BC-4E09-9CF2-83434C2EEEFB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2546,7 +2546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CC2C00-C3D1-4CB2-8895-C2D688F00B3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21029CDB-8AC9-49F4-B17E-47DE341939F1}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3806,7 +3806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CA3A2-F8CC-46FA-89B4-71464C92FD98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B9CDE5-DE52-4876-AD46-521CA0464BF1}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5054,7 +5054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E004BCE-8F2E-4471-B13F-2E508171ADDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E6B5AC-6CF9-4EFA-828C-7CE4317B99E1}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6304,7 +6304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9648ED38-D8CC-4732-86C6-73AE0F9BEC83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031115CE-4FBB-474C-8EFF-663821A7D7A5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7563,7 +7563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F559E2B-575C-483E-B12D-6A57C39C39A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C420F5D-36F5-45E2-8265-9207496F834F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8822,7 +8822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4AADBC-7560-4F5D-8FAD-6B5D9C576D0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42B4849-BF11-4137-95B9-054F6EC410D1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10081,7 +10081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68A11C2-9F6F-45C2-B0BA-DAF2D1FF91B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80930035-DFA9-4997-BAEA-C2602F78D66C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11338,7 +11338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012FAC06-C4BB-4506-AD36-AE790835FF45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57AD5C6-2092-4261-89F5-8BF822D90215}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12601,7 +12601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE7E257-37D6-46BA-9E57-7A80E7161A0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD56AB0-6245-428A-8522-8E705140D445}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -13867,7 +13867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF50C0EF-562E-4930-8928-FFCABC64B8C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FAD6FA-17CE-422B-8147-251773BFA697}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -15133,7 +15133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F247B31-F951-44A3-9924-7CE5A1FD0473}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEC0B64-96A3-45E9-AA41-14F5A1F271A8}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
